--- a/output/dati_azioni_completo_2025-11-24.xlsx
+++ b/output/dati_azioni_completo_2025-11-24.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AU2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,120 +535,140 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
+          <t>Close_10:30</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Close_11:00</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Close_12:00</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Close_14:00</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
           <t>High_30m</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Low_30m</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Volume_30m</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Break_PMH_30m</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>High_1h</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Low_1h</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Volume_1h</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Break_PMH_1h</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>High_90m</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Low_90m</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Volume_90m</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Break_PMH_90m</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>High_4h</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Low_4h</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Volume_4h</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Break_PMH_4h</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>High_1m</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Low_1m</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Volume_1m</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Break_PMH_1m</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>High_5m</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Low_5m</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>Volume_5m</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Break_PMH_5m</t>
         </is>
@@ -657,421 +677,151 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CJET</t>
+          <t>ENLV</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>938437</v>
+        <v>24778688</v>
       </c>
       <c r="C2" t="n">
-        <v>738927</v>
+        <v>24292833</v>
       </c>
       <c r="D2" t="n">
-        <v>278194</v>
+        <v>22760000</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03367</v>
+        <v>0.04528</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00025</v>
+        <v>0.03687</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>45985</v>
       </c>
       <c r="H2" t="n">
-        <v>2.46</v>
+        <v>1.59</v>
       </c>
       <c r="I2" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="J2" t="n">
-        <v>3.24</v>
+        <v>1.81</v>
       </c>
       <c r="K2" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.27</v>
+        <v>1.02</v>
       </c>
       <c r="M2" t="n">
-        <v>46588700</v>
+        <v>208254000</v>
       </c>
       <c r="N2" t="n">
-        <v>2.46</v>
+        <v>1.6</v>
       </c>
       <c r="O2" t="n">
-        <v>29.58</v>
+        <v>77.26000000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>2.32</v>
+        <v>1.34</v>
       </c>
       <c r="Q2" t="n">
-        <v>-5.87</v>
+        <v>-16.03</v>
       </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="n">
-        <v>2.91</v>
+        <v>1.4</v>
       </c>
       <c r="U2" t="n">
-        <v>2.38</v>
+        <v>1.36</v>
       </c>
       <c r="V2" t="n">
-        <v>45683230</v>
-      </c>
-      <c r="W2" t="inlineStr">
+        <v>1.31</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>115777161</v>
+      </c>
+      <c r="AA2" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="X2" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>47750394</v>
-      </c>
-      <c r="AA2" t="inlineStr">
+      <c r="AB2" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>217511507</v>
+      </c>
+      <c r="AE2" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="AB2" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>48316397</v>
-      </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AF2" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>224014208</v>
+      </c>
+      <c r="AI2" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="AF2" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>53092836</v>
-      </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AJ2" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>709696871</v>
+      </c>
+      <c r="AM2" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="AJ2" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>6017023</v>
-      </c>
-      <c r="AM2" t="inlineStr">
+      <c r="AN2" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>33715608</v>
+      </c>
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>n/a</t>
         </is>
       </c>
-      <c r="AN2" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>6017023</v>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ENLV</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>24778688</v>
-      </c>
-      <c r="C3" t="n">
-        <v>24292833</v>
-      </c>
-      <c r="D3" t="n">
-        <v>22760000</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.04528</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.03687</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>45985</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="M3" t="n">
-        <v>208254000</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="O3" t="n">
-        <v>77.26000000000001</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>-16.03</v>
-      </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="V3" t="n">
-        <v>115777161</v>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="X3" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>217511507</v>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AB3" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>224014208</v>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AF3" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>709696871</v>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AJ3" t="n">
+      <c r="AR2" t="n">
         <v>1.68</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AS2" t="n">
         <v>1.55</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AT2" t="n">
         <v>33715608</v>
       </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
-      <c r="AN3" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>33715608</v>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>GELS</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>11353723</v>
-      </c>
-      <c r="C4" t="n">
-        <v>10711059</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3740000</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.47527</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.011510001</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>45985</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="M4" t="n">
-        <v>57886800</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="O4" t="n">
-        <v>28.26</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>-7.93</v>
-      </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="V4" t="n">
-        <v>16228268</v>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="X4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>18179364</v>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AB4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>21374129</v>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AF4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>107100454</v>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>10005876</v>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>n/a</t>
-        </is>
-      </c>
-      <c r="AN4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>10005876</v>
-      </c>
-      <c r="AQ4" t="inlineStr">
+      <c r="AU2" t="inlineStr">
         <is>
           <t>n/a</t>
         </is>
